--- a/natmiOut/OldD4/LR-pairs_lrc2p/Anxa1-Dysf.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Anxa1-Dysf.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.3365488340753</v>
+        <v>17.404364</v>
       </c>
       <c r="H2">
-        <v>10.3365488340753</v>
+        <v>52.213092</v>
       </c>
       <c r="I2">
-        <v>0.02394384126647741</v>
+        <v>0.03673162149179448</v>
       </c>
       <c r="J2">
-        <v>0.02394384126647741</v>
+        <v>0.03917989134808626</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>41.862796439831</v>
+        <v>43.70007466666667</v>
       </c>
       <c r="N2">
-        <v>41.862796439831</v>
+        <v>131.100224</v>
       </c>
       <c r="O2">
-        <v>0.8440261518960536</v>
+        <v>0.8433757073363406</v>
       </c>
       <c r="P2">
-        <v>0.8440261518960536</v>
+        <v>0.8789229579822045</v>
       </c>
       <c r="Q2">
-        <v>432.7168397312668</v>
+        <v>760.5720063258453</v>
       </c>
       <c r="R2">
-        <v>432.7168397312668</v>
+        <v>6845.148056932609</v>
       </c>
       <c r="S2">
-        <v>0.02020922820575486</v>
+        <v>0.0309785572572529</v>
       </c>
       <c r="T2">
-        <v>0.02020922820575486</v>
+        <v>0.03443610599708136</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.3365488340753</v>
+        <v>17.404364</v>
       </c>
       <c r="H3">
-        <v>10.3365488340753</v>
+        <v>52.213092</v>
       </c>
       <c r="I3">
-        <v>0.02394384126647741</v>
+        <v>0.03673162149179448</v>
       </c>
       <c r="J3">
-        <v>0.02394384126647741</v>
+        <v>0.03917989134808626</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.66576330921378</v>
+        <v>1.793750666666667</v>
       </c>
       <c r="N3">
-        <v>1.66576330921378</v>
+        <v>5.381252</v>
       </c>
       <c r="O3">
-        <v>0.03358466025713543</v>
+        <v>0.03461792110938802</v>
       </c>
       <c r="P3">
-        <v>0.03358466025713543</v>
+        <v>0.03607702398348041</v>
       </c>
       <c r="Q3">
-        <v>17.21824379169911</v>
+        <v>31.21908952790934</v>
       </c>
       <c r="R3">
-        <v>17.21824379169911</v>
+        <v>280.971805751184</v>
       </c>
       <c r="S3">
-        <v>0.0008041457741854231</v>
+        <v>0.001271572375022843</v>
       </c>
       <c r="T3">
-        <v>0.0008041457741854231</v>
+        <v>0.001413493879835065</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.3365488340753</v>
+        <v>17.404364</v>
       </c>
       <c r="H4">
-        <v>10.3365488340753</v>
+        <v>52.213092</v>
       </c>
       <c r="I4">
-        <v>0.02394384126647741</v>
+        <v>0.03673162149179448</v>
       </c>
       <c r="J4">
-        <v>0.02394384126647741</v>
+        <v>0.03917989134808626</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.0160037317318328</v>
+        <v>0.010584</v>
       </c>
       <c r="N4">
-        <v>0.0160037317318328</v>
+        <v>0.031752</v>
       </c>
       <c r="O4">
-        <v>0.0003226628237559309</v>
+        <v>0.0002042625454197812</v>
       </c>
       <c r="P4">
-        <v>0.0003226628237559309</v>
+        <v>0.0002128719609346431</v>
       </c>
       <c r="Q4">
-        <v>0.1654233545735302</v>
+        <v>0.184207788576</v>
       </c>
       <c r="R4">
-        <v>0.1654233545735302</v>
+        <v>1.657870097184</v>
       </c>
       <c r="S4">
-        <v>7.725787434605384E-06</v>
+        <v>7.502894503309881E-06</v>
       </c>
       <c r="T4">
-        <v>7.725787434605384E-06</v>
+        <v>8.34030030047338E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.3365488340753</v>
+        <v>17.404364</v>
       </c>
       <c r="H5">
-        <v>10.3365488340753</v>
+        <v>52.213092</v>
       </c>
       <c r="I5">
-        <v>0.02394384126647741</v>
+        <v>0.03673162149179448</v>
       </c>
       <c r="J5">
-        <v>0.02394384126647741</v>
+        <v>0.03917989134808626</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.05436937905097</v>
+        <v>0.024343</v>
       </c>
       <c r="N5">
-        <v>6.05436937905097</v>
+        <v>0.073029</v>
       </c>
       <c r="O5">
-        <v>0.122066525023055</v>
+        <v>0.0004697999946290375</v>
       </c>
       <c r="P5">
-        <v>0.122066525023055</v>
+        <v>0.0004896014876258519</v>
       </c>
       <c r="Q5">
-        <v>62.5812847460905</v>
+        <v>0.423674432852</v>
       </c>
       <c r="R5">
-        <v>62.5812847460905</v>
+        <v>3.813069895668</v>
       </c>
       <c r="S5">
-        <v>0.002922741499102521</v>
+        <v>1.725651557956089E-05</v>
       </c>
       <c r="T5">
-        <v>0.002922741499102521</v>
+        <v>1.918253308904228E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>163.630264649244</v>
+        <v>17.404364</v>
       </c>
       <c r="H6">
-        <v>163.630264649244</v>
+        <v>52.213092</v>
       </c>
       <c r="I6">
-        <v>0.3790372537337974</v>
+        <v>0.03673162149179448</v>
       </c>
       <c r="J6">
-        <v>0.3790372537337974</v>
+        <v>0.03917989134808626</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>41.862796439831</v>
+        <v>6.2869145</v>
       </c>
       <c r="N6">
-        <v>41.862796439831</v>
+        <v>12.573829</v>
       </c>
       <c r="O6">
-        <v>0.8440261518960536</v>
+        <v>0.1213323090142225</v>
       </c>
       <c r="P6">
-        <v>0.8440261518960536</v>
+        <v>0.08429754458575467</v>
       </c>
       <c r="Q6">
-        <v>6850.020460406976</v>
+        <v>109.419748394878</v>
       </c>
       <c r="R6">
-        <v>6850.020460406976</v>
+        <v>656.5184903692681</v>
       </c>
       <c r="S6">
-        <v>0.3199173546941851</v>
+        <v>0.004456732449435863</v>
       </c>
       <c r="T6">
-        <v>0.3199173546941851</v>
+        <v>0.003302768637780325</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,55 +841,55 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>163.630264649244</v>
+        <v>178.3379163333334</v>
       </c>
       <c r="H7">
-        <v>163.630264649244</v>
+        <v>535.0137490000001</v>
       </c>
       <c r="I7">
-        <v>0.3790372537337974</v>
+        <v>0.376379213879422</v>
       </c>
       <c r="J7">
-        <v>0.3790372537337974</v>
+        <v>0.4014659877938717</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.66576330921378</v>
+        <v>43.70007466666667</v>
       </c>
       <c r="N7">
-        <v>1.66576330921378</v>
+        <v>131.100224</v>
       </c>
       <c r="O7">
-        <v>0.03358466025713543</v>
+        <v>0.8433757073363406</v>
       </c>
       <c r="P7">
-        <v>0.03358466025713543</v>
+        <v>0.8789229579822045</v>
       </c>
       <c r="Q7">
-        <v>272.5692911296513</v>
+        <v>7793.380259664421</v>
       </c>
       <c r="R7">
-        <v>272.5692911296513</v>
+        <v>70140.42233697978</v>
       </c>
       <c r="S7">
-        <v>0.01272983739144723</v>
+        <v>0.3174290857322534</v>
       </c>
       <c r="T7">
-        <v>0.01272983739144723</v>
+        <v>0.3528576735210373</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +903,55 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>163.630264649244</v>
+        <v>178.3379163333334</v>
       </c>
       <c r="H8">
-        <v>163.630264649244</v>
+        <v>535.0137490000001</v>
       </c>
       <c r="I8">
-        <v>0.3790372537337974</v>
+        <v>0.376379213879422</v>
       </c>
       <c r="J8">
-        <v>0.3790372537337974</v>
+        <v>0.4014659877938717</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.0160037317318328</v>
+        <v>1.793750666666667</v>
       </c>
       <c r="N8">
-        <v>0.0160037317318328</v>
+        <v>5.381252</v>
       </c>
       <c r="O8">
-        <v>0.0003226628237559309</v>
+        <v>0.03461792110938802</v>
       </c>
       <c r="P8">
-        <v>0.0003226628237559309</v>
+        <v>0.03607702398348041</v>
       </c>
       <c r="Q8">
-        <v>2.618694858655305</v>
+        <v>319.893756314861</v>
       </c>
       <c r="R8">
-        <v>2.618694858655305</v>
+        <v>2879.043806833748</v>
       </c>
       <c r="S8">
-        <v>0.0001223012305984403</v>
+        <v>0.01302946593329131</v>
       </c>
       <c r="T8">
-        <v>0.0001223012305984403</v>
+        <v>0.01448369807019116</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>163.630264649244</v>
+        <v>178.3379163333334</v>
       </c>
       <c r="H9">
-        <v>163.630264649244</v>
+        <v>535.0137490000001</v>
       </c>
       <c r="I9">
-        <v>0.3790372537337974</v>
+        <v>0.376379213879422</v>
       </c>
       <c r="J9">
-        <v>0.3790372537337974</v>
+        <v>0.4014659877938717</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>6.05436937905097</v>
+        <v>0.010584</v>
       </c>
       <c r="N9">
-        <v>6.05436937905097</v>
+        <v>0.031752</v>
       </c>
       <c r="O9">
-        <v>0.122066525023055</v>
+        <v>0.0002042625454197812</v>
       </c>
       <c r="P9">
-        <v>0.122066525023055</v>
+        <v>0.0002128719609346431</v>
       </c>
       <c r="Q9">
-        <v>990.6780637783892</v>
+        <v>1.887528506472001</v>
       </c>
       <c r="R9">
-        <v>990.6780637783892</v>
+        <v>16.98775655824801</v>
       </c>
       <c r="S9">
-        <v>0.04626776041756663</v>
+        <v>7.688017627010699E-05</v>
       </c>
       <c r="T9">
-        <v>0.04626776041756663</v>
+        <v>8.546085207024495E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>85.4032467053773</v>
+        <v>178.3379163333334</v>
       </c>
       <c r="H10">
-        <v>85.4032467053773</v>
+        <v>535.0137490000001</v>
       </c>
       <c r="I10">
-        <v>0.1978302251148119</v>
+        <v>0.376379213879422</v>
       </c>
       <c r="J10">
-        <v>0.1978302251148119</v>
+        <v>0.4014659877938717</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>41.862796439831</v>
+        <v>0.024343</v>
       </c>
       <c r="N10">
-        <v>41.862796439831</v>
+        <v>0.073029</v>
       </c>
       <c r="O10">
-        <v>0.8440261518960536</v>
+        <v>0.0004697999946290375</v>
       </c>
       <c r="P10">
-        <v>0.8440261518960536</v>
+        <v>0.0004896014876258519</v>
       </c>
       <c r="Q10">
-        <v>3575.218732127878</v>
+        <v>4.341279897302334</v>
       </c>
       <c r="R10">
-        <v>3575.218732127878</v>
+        <v>39.07151907572101</v>
       </c>
       <c r="S10">
-        <v>0.1669738836323847</v>
+        <v>0.0001768229526590338</v>
       </c>
       <c r="T10">
-        <v>0.1669738836323847</v>
+        <v>0.0001965583448550617</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>85.4032467053773</v>
+        <v>178.3379163333334</v>
       </c>
       <c r="H11">
-        <v>85.4032467053773</v>
+        <v>535.0137490000001</v>
       </c>
       <c r="I11">
-        <v>0.1978302251148119</v>
+        <v>0.376379213879422</v>
       </c>
       <c r="J11">
-        <v>0.1978302251148119</v>
+        <v>0.4014659877938717</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.66576330921378</v>
+        <v>6.2869145</v>
       </c>
       <c r="N11">
-        <v>1.66576330921378</v>
+        <v>12.573829</v>
       </c>
       <c r="O11">
-        <v>0.03358466025713543</v>
+        <v>0.1213323090142225</v>
       </c>
       <c r="P11">
-        <v>0.03358466025713543</v>
+        <v>0.08429754458575467</v>
       </c>
       <c r="Q11">
-        <v>142.2615948495501</v>
+        <v>1121.19523209582</v>
       </c>
       <c r="R11">
-        <v>142.2615948495501</v>
+        <v>6727.171392574922</v>
       </c>
       <c r="S11">
-        <v>0.006644060899073581</v>
+        <v>0.04566695908494817</v>
       </c>
       <c r="T11">
-        <v>0.006644060899073581</v>
+        <v>0.03384259700571794</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>85.4032467053773</v>
+        <v>86.61737833333332</v>
       </c>
       <c r="H12">
-        <v>85.4032467053773</v>
+        <v>259.852135</v>
       </c>
       <c r="I12">
-        <v>0.1978302251148119</v>
+        <v>0.1828045400309692</v>
       </c>
       <c r="J12">
-        <v>0.1978302251148119</v>
+        <v>0.1949889965502951</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.0160037317318328</v>
+        <v>43.70007466666667</v>
       </c>
       <c r="N12">
-        <v>0.0160037317318328</v>
+        <v>131.100224</v>
       </c>
       <c r="O12">
-        <v>0.0003226628237559309</v>
+        <v>0.8433757073363406</v>
       </c>
       <c r="P12">
-        <v>0.0003226628237559309</v>
+        <v>0.8789229579822045</v>
       </c>
       <c r="Q12">
-        <v>1.366770649300392</v>
+        <v>3785.185900597582</v>
       </c>
       <c r="R12">
-        <v>1.366770649300392</v>
+        <v>34066.67310537824</v>
       </c>
       <c r="S12">
-        <v>6.38324590598167E-05</v>
+        <v>0.154172908252913</v>
       </c>
       <c r="T12">
-        <v>6.38324590598167E-05</v>
+        <v>0.1713803056219673</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>85.4032467053773</v>
+        <v>86.61737833333332</v>
       </c>
       <c r="H13">
-        <v>85.4032467053773</v>
+        <v>259.852135</v>
       </c>
       <c r="I13">
-        <v>0.1978302251148119</v>
+        <v>0.1828045400309692</v>
       </c>
       <c r="J13">
-        <v>0.1978302251148119</v>
+        <v>0.1949889965502951</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.05436937905097</v>
+        <v>1.793750666666667</v>
       </c>
       <c r="N13">
-        <v>6.05436937905097</v>
+        <v>5.381252</v>
       </c>
       <c r="O13">
-        <v>0.122066525023055</v>
+        <v>0.03461792110938802</v>
       </c>
       <c r="P13">
-        <v>0.122066525023055</v>
+        <v>0.03607702398348041</v>
       </c>
       <c r="Q13">
-        <v>517.062801724572</v>
+        <v>155.3699801303355</v>
       </c>
       <c r="R13">
-        <v>517.062801724572</v>
+        <v>1398.32982117302</v>
       </c>
       <c r="S13">
-        <v>0.0241484481242938</v>
+        <v>0.006328313145230056</v>
       </c>
       <c r="T13">
-        <v>0.0241484481242938</v>
+        <v>0.007034622705059776</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,122 +1275,122 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>100.955319483884</v>
+        <v>86.61737833333332</v>
       </c>
       <c r="H14">
-        <v>100.955319483884</v>
+        <v>259.852135</v>
       </c>
       <c r="I14">
-        <v>0.2338554370062025</v>
+        <v>0.1828045400309692</v>
       </c>
       <c r="J14">
-        <v>0.2338554370062025</v>
+        <v>0.1949889965502951</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>41.862796439831</v>
+        <v>0.010584</v>
       </c>
       <c r="N14">
-        <v>41.862796439831</v>
+        <v>0.031752</v>
       </c>
       <c r="O14">
-        <v>0.8440261518960536</v>
+        <v>0.0002042625454197812</v>
       </c>
       <c r="P14">
-        <v>0.8440261518960536</v>
+        <v>0.0002128719609346431</v>
       </c>
       <c r="Q14">
-        <v>4226.27198907194</v>
+        <v>0.91675833228</v>
       </c>
       <c r="R14">
-        <v>4226.27198907194</v>
+        <v>8.25082499052</v>
       </c>
       <c r="S14">
-        <v>0.1973801045963151</v>
+        <v>3.734012066101806E-05</v>
       </c>
       <c r="T14">
-        <v>0.1973801045963151</v>
+        <v>4.150769005633969E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>100.955319483884</v>
+        <v>86.61737833333332</v>
       </c>
       <c r="H15">
-        <v>100.955319483884</v>
+        <v>259.852135</v>
       </c>
       <c r="I15">
-        <v>0.2338554370062025</v>
+        <v>0.1828045400309692</v>
       </c>
       <c r="J15">
-        <v>0.2338554370062025</v>
+        <v>0.1949889965502951</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.66576330921378</v>
+        <v>0.024343</v>
       </c>
       <c r="N15">
-        <v>1.66576330921378</v>
+        <v>0.073029</v>
       </c>
       <c r="O15">
-        <v>0.03358466025713543</v>
+        <v>0.0004697999946290375</v>
       </c>
       <c r="P15">
-        <v>0.03358466025713543</v>
+        <v>0.0004896014876258519</v>
       </c>
       <c r="Q15">
-        <v>168.167667066209</v>
+        <v>2.108526840768333</v>
       </c>
       <c r="R15">
-        <v>168.167667066209</v>
+        <v>18.976741566915</v>
       </c>
       <c r="S15">
-        <v>0.007853955401137248</v>
+        <v>8.588157192471301E-05</v>
       </c>
       <c r="T15">
-        <v>0.007853955401137248</v>
+        <v>9.54669027816966E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>100.955319483884</v>
+        <v>86.61737833333332</v>
       </c>
       <c r="H16">
-        <v>100.955319483884</v>
+        <v>259.852135</v>
       </c>
       <c r="I16">
-        <v>0.2338554370062025</v>
+        <v>0.1828045400309692</v>
       </c>
       <c r="J16">
-        <v>0.2338554370062025</v>
+        <v>0.1949889965502951</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.0160037317318328</v>
+        <v>6.2869145</v>
       </c>
       <c r="N16">
-        <v>0.0160037317318328</v>
+        <v>12.573829</v>
       </c>
       <c r="O16">
-        <v>0.0003226628237559309</v>
+        <v>0.1213323090142225</v>
       </c>
       <c r="P16">
-        <v>0.0003226628237559309</v>
+        <v>0.08429754458575467</v>
       </c>
       <c r="Q16">
-        <v>1.615661849921552</v>
+        <v>544.556051795819</v>
       </c>
       <c r="R16">
-        <v>1.615661849921552</v>
+        <v>3267.336310774915</v>
       </c>
       <c r="S16">
-        <v>7.545645565509851E-05</v>
+        <v>0.02218009694024036</v>
       </c>
       <c r="T16">
-        <v>7.545645565509851E-05</v>
+        <v>0.01643709363043007</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,60 +1461,60 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>100.955319483884</v>
+        <v>102.6404036666667</v>
       </c>
       <c r="H17">
-        <v>100.955319483884</v>
+        <v>307.921211</v>
       </c>
       <c r="I17">
-        <v>0.2338554370062025</v>
+        <v>0.2166208691825219</v>
       </c>
       <c r="J17">
-        <v>0.2338554370062025</v>
+        <v>0.231059282808824</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.05436937905097</v>
+        <v>43.70007466666667</v>
       </c>
       <c r="N17">
-        <v>6.05436937905097</v>
+        <v>131.100224</v>
       </c>
       <c r="O17">
-        <v>0.122066525023055</v>
+        <v>0.8433757073363406</v>
       </c>
       <c r="P17">
-        <v>0.122066525023055</v>
+        <v>0.8789229579822045</v>
       </c>
       <c r="Q17">
-        <v>611.220794935535</v>
+        <v>4485.39330405014</v>
       </c>
       <c r="R17">
-        <v>611.220794935535</v>
+        <v>40368.53973645126</v>
       </c>
       <c r="S17">
-        <v>0.02854592055309508</v>
+        <v>0.1826927787706223</v>
       </c>
       <c r="T17">
-        <v>0.02854592055309508</v>
+        <v>0.2030833083155783</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,60 +1523,60 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>71.3743095726448</v>
+        <v>102.6404036666667</v>
       </c>
       <c r="H18">
-        <v>71.3743095726448</v>
+        <v>307.921211</v>
       </c>
       <c r="I18">
-        <v>0.1653332428787108</v>
+        <v>0.2166208691825219</v>
       </c>
       <c r="J18">
-        <v>0.1653332428787108</v>
+        <v>0.231059282808824</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>41.862796439831</v>
+        <v>1.793750666666667</v>
       </c>
       <c r="N18">
-        <v>41.862796439831</v>
+        <v>5.381252</v>
       </c>
       <c r="O18">
-        <v>0.8440261518960536</v>
+        <v>0.03461792110938802</v>
       </c>
       <c r="P18">
-        <v>0.8440261518960536</v>
+        <v>0.03607702398348041</v>
       </c>
       <c r="Q18">
-        <v>2987.928192673111</v>
+        <v>184.1112925040191</v>
       </c>
       <c r="R18">
-        <v>2987.928192673111</v>
+        <v>1657.001632536172</v>
       </c>
       <c r="S18">
-        <v>0.1395455807674139</v>
+        <v>0.007498964160007605</v>
       </c>
       <c r="T18">
-        <v>0.1395455807674139</v>
+        <v>0.008335931287499725</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,60 +1585,60 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>71.3743095726448</v>
+        <v>102.6404036666667</v>
       </c>
       <c r="H19">
-        <v>71.3743095726448</v>
+        <v>307.921211</v>
       </c>
       <c r="I19">
-        <v>0.1653332428787108</v>
+        <v>0.2166208691825219</v>
       </c>
       <c r="J19">
-        <v>0.1653332428787108</v>
+        <v>0.231059282808824</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>1.66576330921378</v>
+        <v>0.010584</v>
       </c>
       <c r="N19">
-        <v>1.66576330921378</v>
+        <v>0.031752</v>
       </c>
       <c r="O19">
-        <v>0.03358466025713543</v>
+        <v>0.0002042625454197812</v>
       </c>
       <c r="P19">
-        <v>0.03358466025713543</v>
+        <v>0.0002128719609346431</v>
       </c>
       <c r="Q19">
-        <v>118.8927061065776</v>
+        <v>1.086346032408</v>
       </c>
       <c r="R19">
-        <v>118.8927061065776</v>
+        <v>9.777114291672</v>
       </c>
       <c r="S19">
-        <v>0.005552660791291957</v>
+        <v>4.424753013026736E-05</v>
       </c>
       <c r="T19">
-        <v>0.005552660791291957</v>
+        <v>4.918604262366663E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1650,57 +1650,57 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>71.3743095726448</v>
+        <v>102.6404036666667</v>
       </c>
       <c r="H20">
-        <v>71.3743095726448</v>
+        <v>307.921211</v>
       </c>
       <c r="I20">
-        <v>0.1653332428787108</v>
+        <v>0.2166208691825219</v>
       </c>
       <c r="J20">
-        <v>0.1653332428787108</v>
+        <v>0.231059282808824</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.0160037317318328</v>
+        <v>0.024343</v>
       </c>
       <c r="N20">
-        <v>0.0160037317318328</v>
+        <v>0.073029</v>
       </c>
       <c r="O20">
-        <v>0.0003226628237559309</v>
+        <v>0.0004697999946290375</v>
       </c>
       <c r="P20">
-        <v>0.0003226628237559309</v>
+        <v>0.0004896014876258519</v>
       </c>
       <c r="Q20">
-        <v>1.142255302945393</v>
+        <v>2.498575346457666</v>
       </c>
       <c r="R20">
-        <v>1.142255302945393</v>
+        <v>22.487178118119</v>
       </c>
       <c r="S20">
-        <v>5.334689100796997E-05</v>
+        <v>0.0001017684831784862</v>
       </c>
       <c r="T20">
-        <v>5.334689100796997E-05</v>
+        <v>0.0001131269685929626</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,52 +1712,362 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>71.3743095726448</v>
+        <v>102.6404036666667</v>
       </c>
       <c r="H21">
-        <v>71.3743095726448</v>
+        <v>307.921211</v>
       </c>
       <c r="I21">
-        <v>0.1653332428787108</v>
+        <v>0.2166208691825219</v>
       </c>
       <c r="J21">
-        <v>0.1653332428787108</v>
+        <v>0.231059282808824</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>6.05436937905097</v>
+        <v>6.2869145</v>
       </c>
       <c r="N21">
-        <v>6.05436937905097</v>
+        <v>12.573829</v>
       </c>
       <c r="O21">
-        <v>0.122066525023055</v>
+        <v>0.1213323090142225</v>
       </c>
       <c r="P21">
-        <v>0.122066525023055</v>
+        <v>0.08429754458575467</v>
       </c>
       <c r="Q21">
-        <v>432.1264343275252</v>
+        <v>645.2914420978198</v>
       </c>
       <c r="R21">
-        <v>432.1264343275252</v>
+        <v>3871.748652586919</v>
       </c>
       <c r="S21">
-        <v>0.02018165442899698</v>
+        <v>0.02628311023858321</v>
       </c>
       <c r="T21">
-        <v>0.02018165442899698</v>
+        <v>0.01947773019452934</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>88.82503149999999</v>
+      </c>
+      <c r="H22">
+        <v>177.650063</v>
+      </c>
+      <c r="I22">
+        <v>0.1874637554152924</v>
+      </c>
+      <c r="J22">
+        <v>0.1333058414989229</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>43.70007466666667</v>
+      </c>
+      <c r="N22">
+        <v>131.100224</v>
+      </c>
+      <c r="O22">
+        <v>0.8433757073363406</v>
+      </c>
+      <c r="P22">
+        <v>0.8789229579822045</v>
+      </c>
+      <c r="Q22">
+        <v>3881.660508819019</v>
+      </c>
+      <c r="R22">
+        <v>23289.96305291411</v>
+      </c>
+      <c r="S22">
+        <v>0.158102377323299</v>
+      </c>
+      <c r="T22">
+        <v>0.1171655645265402</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>88.82503149999999</v>
+      </c>
+      <c r="H23">
+        <v>177.650063</v>
+      </c>
+      <c r="I23">
+        <v>0.1874637554152924</v>
+      </c>
+      <c r="J23">
+        <v>0.1333058414989229</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.793750666666667</v>
+      </c>
+      <c r="N23">
+        <v>5.381252</v>
+      </c>
+      <c r="O23">
+        <v>0.03461792110938802</v>
+      </c>
+      <c r="P23">
+        <v>0.03607702398348041</v>
+      </c>
+      <c r="Q23">
+        <v>159.3299594698126</v>
+      </c>
+      <c r="R23">
+        <v>955.9797568188759</v>
+      </c>
+      <c r="S23">
+        <v>0.006489605495836204</v>
+      </c>
+      <c r="T23">
+        <v>0.004809278040894678</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>88.82503149999999</v>
+      </c>
+      <c r="H24">
+        <v>177.650063</v>
+      </c>
+      <c r="I24">
+        <v>0.1874637554152924</v>
+      </c>
+      <c r="J24">
+        <v>0.1333058414989229</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.010584</v>
+      </c>
+      <c r="N24">
+        <v>0.031752</v>
+      </c>
+      <c r="O24">
+        <v>0.0002042625454197812</v>
+      </c>
+      <c r="P24">
+        <v>0.0002128719609346431</v>
+      </c>
+      <c r="Q24">
+        <v>0.9401241333960001</v>
+      </c>
+      <c r="R24">
+        <v>5.640744800376</v>
+      </c>
+      <c r="S24">
+        <v>3.829182385507893E-05</v>
+      </c>
+      <c r="T24">
+        <v>2.837707588391844E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>88.82503149999999</v>
+      </c>
+      <c r="H25">
+        <v>177.650063</v>
+      </c>
+      <c r="I25">
+        <v>0.1874637554152924</v>
+      </c>
+      <c r="J25">
+        <v>0.1333058414989229</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.024343</v>
+      </c>
+      <c r="N25">
+        <v>0.073029</v>
+      </c>
+      <c r="O25">
+        <v>0.0004697999946290375</v>
+      </c>
+      <c r="P25">
+        <v>0.0004896014876258519</v>
+      </c>
+      <c r="Q25">
+        <v>2.1622677418045</v>
+      </c>
+      <c r="R25">
+        <v>12.973606450827</v>
+      </c>
+      <c r="S25">
+        <v>8.807047128724359E-05</v>
+      </c>
+      <c r="T25">
+        <v>6.526673830708866E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>88.82503149999999</v>
+      </c>
+      <c r="H26">
+        <v>177.650063</v>
+      </c>
+      <c r="I26">
+        <v>0.1874637554152924</v>
+      </c>
+      <c r="J26">
+        <v>0.1333058414989229</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>6.2869145</v>
+      </c>
+      <c r="N26">
+        <v>12.573829</v>
+      </c>
+      <c r="O26">
+        <v>0.1213323090142225</v>
+      </c>
+      <c r="P26">
+        <v>0.08429754458575467</v>
+      </c>
+      <c r="Q26">
+        <v>558.4353785003067</v>
+      </c>
+      <c r="R26">
+        <v>2233.741514001227</v>
+      </c>
+      <c r="S26">
+        <v>0.02274541030101489</v>
+      </c>
+      <c r="T26">
+        <v>0.011237355117297</v>
       </c>
     </row>
   </sheetData>
